--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2700,7 +2700,7 @@
         <v>104</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>96</v>
@@ -2809,206 +2809,6 @@
         <v>115</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F129" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t/>
   </si>
   <si>
+    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
+  </si>
+  <si>
     <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -418,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -430,6 +439,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="49.828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,185 +461,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -651,2165 +691,2492 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,52 +32,55 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
+  </si>
+  <si>
+    <t>Copia integrale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
-  </si>
-  <si>
-    <t>Copia integrale atto di nascita degli sposi</t>
-  </si>
-  <si>
-    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
-  </si>
-  <si>
-    <t>Certificato di eseguita pubblicazione</t>
-  </si>
-  <si>
-    <t>Atto di pubblicazione</t>
-  </si>
-  <si>
-    <t>Richiesta rilascio atto di delega</t>
-  </si>
-  <si>
-    <t>Atto di delegazione</t>
-  </si>
-  <si>
-    <t>Copia atto di matrimonio trascritto</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.1</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -692,2491 +695,2491 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>{evento.trascrizioneMatrimonio.tipoDichiarazione,=,3}</t>
+    <t>evento.trascrizioneMatrimonio.tipoDichiarazione,=,3</t>
   </si>
   <si>
     <t>Copia integrale atto di nascita degli sposi</t>
@@ -442,7 +442,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="49.828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="48.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,12 +300,6 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
-  </si>
-  <si>
-    <t>Richiedente</t>
-  </si>
-  <si>
-    <t>evento.dichiarante</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -430,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2428,16 +2422,16 @@
         <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2451,16 +2445,16 @@
         <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2474,16 +2468,16 @@
         <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2497,16 +2491,16 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2520,16 +2514,16 @@
         <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2543,16 +2537,16 @@
         <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2566,16 +2560,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2589,16 +2583,16 @@
         <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2612,16 +2606,16 @@
         <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2635,550 +2629,21 @@
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -1422,7 +1422,7 @@
         <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>27</v>
@@ -1583,7 +1583,7 @@
         <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -1629,7 +1629,7 @@
         <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>27</v>
@@ -1767,7 +1767,7 @@
         <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>27</v>
@@ -1813,7 +1813,7 @@
         <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>27</v>
@@ -1836,7 +1836,7 @@
         <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>27</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,60 @@
     <t>Dati generali</t>
   </si>
   <si>
+    <t>Data Evento Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Tipo richiesta</t>
   </si>
   <si>
@@ -360,12 +414,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
 </sst>
 </file>
@@ -424,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -818,10 +866,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -835,16 +883,16 @@
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -855,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>43</v>
@@ -864,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>44</v>
@@ -878,19 +926,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -901,19 +949,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -924,19 +972,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -947,19 +995,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -970,16 +1018,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>55</v>
@@ -993,7 +1041,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>56</v>
@@ -1002,7 +1050,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>57</v>
@@ -1016,16 +1064,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>59</v>
@@ -1039,19 +1087,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1062,19 +1110,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1085,19 +1133,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1108,19 +1156,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1131,19 +1179,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1154,19 +1202,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1177,19 +1225,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1200,19 +1248,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1223,19 +1271,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1246,19 +1294,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1269,19 +1317,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1292,19 +1340,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1315,19 +1363,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1338,19 +1386,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1361,19 +1409,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1384,19 +1432,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1407,19 +1455,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1478,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1501,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1522,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1938,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1959,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1982,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2191,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2237,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2260,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2283,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2306,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2375,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2421,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2490,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2513,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2536,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2559,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2582,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2605,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2628,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2651,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2626,24 +2674,208 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,7 +167,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -472,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1343,16 +1346,16 @@
         <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1366,7 +1369,7 @@
         <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -1375,7 +1378,7 @@
         <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1389,7 +1392,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>21</v>
@@ -1398,7 +1401,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1412,7 +1415,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>21</v>
@@ -1421,7 +1424,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1435,16 +1438,16 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1458,7 +1461,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1467,7 +1470,7 @@
         <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1481,7 +1484,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1490,7 +1493,7 @@
         <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1504,7 +1507,7 @@
         <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1513,7 +1516,7 @@
         <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1527,7 +1530,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1536,7 +1539,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1550,16 +1553,16 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1573,7 +1576,7 @@
         <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>21</v>
@@ -1582,7 +1585,7 @@
         <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1596,7 +1599,7 @@
         <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>21</v>
@@ -1605,7 +1608,7 @@
         <v>64</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1619,16 +1622,16 @@
         <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1642,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1665,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1688,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1711,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1734,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1757,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1780,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1803,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1826,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1849,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1872,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1895,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1918,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1941,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1964,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1987,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2010,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2033,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2056,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2079,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2102,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2125,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2148,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2171,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2194,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2217,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2240,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2263,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2286,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2309,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2332,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2355,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2378,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2401,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2424,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2447,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2470,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2493,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2516,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2539,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2562,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2585,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2608,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2631,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2654,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2677,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2700,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2723,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2746,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2769,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2792,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2815,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2838,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,24 +2861,93 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,19 +194,13 @@
     <t>testoLibero</t>
   </si>
   <si>
-    <t>Officiante</t>
-  </si>
-  <si>
-    <t>Titolo officiante</t>
-  </si>
-  <si>
-    <t>titoloOfficiante</t>
+    <t>Generalità Sposo</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>evento.trascrizioneMatrimonio.officiante</t>
+    <t>evento.intestatari[0]</t>
   </si>
   <si>
     <t>cognome</t>
@@ -341,22 +335,25 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Generalità Sposa</t>
+  </si>
+  <si>
+    <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Richiedente</t>
+  </si>
+  <si>
     <t>Codice Fiscale</t>
   </si>
   <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
     <t>codiceFiscale</t>
   </si>
   <si>
-    <t>Generalità Sposo</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Generalità Sposa</t>
-  </si>
-  <si>
-    <t>evento.intestatari[1]</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -475,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1099,10 +1096,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1116,13 +1113,13 @@
         <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -1145,7 +1142,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -1165,10 +1162,10 @@
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -1188,10 +1185,10 @@
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -1214,7 +1211,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>73</v>
@@ -1234,10 +1231,10 @@
         <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>75</v>
@@ -1260,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>77</v>
@@ -1283,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>79</v>
@@ -1306,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>81</v>
@@ -1323,16 +1320,16 @@
         <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1346,13 +1343,13 @@
         <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>84</v>
@@ -1375,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>86</v>
@@ -1398,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>88</v>
@@ -1421,7 +1418,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>90</v>
@@ -1441,10 +1438,10 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>92</v>
@@ -1467,7 +1464,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>94</v>
@@ -1490,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>96</v>
@@ -1513,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>98</v>
@@ -1536,7 +1533,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>100</v>
@@ -1556,10 +1553,10 @@
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>102</v>
@@ -1582,7 +1579,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>104</v>
@@ -1605,7 +1602,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>106</v>
@@ -1619,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1642,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1938,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2148,22 +2145,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>27</v>
@@ -2171,19 +2168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2194,16 +2191,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>65</v>
@@ -2217,22 +2214,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2240,22 +2237,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2263,7 +2260,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>70</v>
@@ -2272,7 +2269,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>71</v>
@@ -2286,7 +2283,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>72</v>
@@ -2295,7 +2292,7 @@
         <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>73</v>
@@ -2309,16 +2306,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>75</v>
@@ -2332,7 +2329,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>76</v>
@@ -2341,13 +2338,13 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>27</v>
@@ -2355,7 +2352,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>78</v>
@@ -2364,7 +2361,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>79</v>
@@ -2378,7 +2375,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>80</v>
@@ -2387,13 +2384,13 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2401,22 +2398,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>27</v>
@@ -2424,16 +2421,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>84</v>
@@ -2447,7 +2444,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>85</v>
@@ -2456,7 +2453,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>86</v>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>87</v>
@@ -2479,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>88</v>
@@ -2493,7 +2490,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>89</v>
@@ -2502,7 +2499,7 @@
         <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>90</v>
@@ -2516,16 +2513,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>92</v>
@@ -2539,7 +2536,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>93</v>
@@ -2548,13 +2545,13 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>27</v>
@@ -2562,7 +2559,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>95</v>
@@ -2571,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>96</v>
@@ -2585,7 +2582,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>97</v>
@@ -2594,13 +2591,13 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>27</v>
@@ -2608,7 +2605,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>99</v>
@@ -2617,13 +2614,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>27</v>
@@ -2631,16 +2628,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>102</v>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>103</v>
@@ -2663,7 +2660,7 @@
         <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>104</v>
@@ -2677,22 +2674,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>27</v>
@@ -2700,19 +2697,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2720,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2743,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2766,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2789,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2812,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2835,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2858,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2881,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2907,47 +2904,24 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -333,6 +333,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -472,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1616,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1663,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1709,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1732,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1755,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1778,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1801,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1824,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1847,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1870,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1893,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1916,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1939,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1962,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1985,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +2008,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2031,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2054,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2077,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2100,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2123,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2146,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,22 +2169,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>27</v>
@@ -2168,19 +2192,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2215,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,22 +2238,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2237,22 +2261,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2260,19 +2284,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2307,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2330,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2353,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>20</v>
@@ -2352,19 +2376,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,22 +2399,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2398,19 +2422,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
@@ -2421,22 +2445,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>27</v>
@@ -2444,19 +2468,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2491,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2514,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,22 +2537,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2536,22 +2560,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>27</v>
@@ -2559,22 +2583,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>27</v>
@@ -2582,19 +2606,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>20</v>
@@ -2605,22 +2629,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>27</v>
@@ -2628,19 +2652,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2675,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,22 +2698,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>27</v>
@@ -2697,19 +2721,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2720,22 +2744,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>27</v>
@@ -2743,19 +2767,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2766,22 +2790,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2789,22 +2813,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>27</v>
@@ -2812,19 +2836,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2859,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,22 +2882,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>27</v>
@@ -2881,19 +2905,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2904,24 +2928,208 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -212,6 +212,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -263,13 +269,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1163,7 +1169,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>62</v>
@@ -1255,7 +1261,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>62</v>
@@ -1344,7 +1350,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1353,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1367,10 +1373,10 @@
         <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>62</v>
@@ -1462,7 +1468,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>62</v>
@@ -1577,7 +1583,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>62</v>
@@ -1646,7 +1652,7 @@
         <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>62</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2362,19 @@
         <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>27</v>
@@ -2379,16 +2385,16 @@
         <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2399,22 +2405,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2422,22 +2428,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>27</v>
@@ -2445,22 +2451,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>27</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2491,22 +2497,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>27</v>
@@ -2514,22 +2520,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>27</v>
@@ -2537,22 +2543,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2589,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>27</v>
@@ -2606,19 +2612,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>20</v>
@@ -2629,19 +2635,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2652,22 +2658,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>27</v>
@@ -2675,22 +2681,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>27</v>
@@ -2698,19 +2704,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2727,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2744,22 +2750,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>27</v>
@@ -2767,19 +2773,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2790,22 +2796,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2813,19 +2819,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -2836,19 +2842,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2859,22 +2865,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>27</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>20</v>
@@ -2905,19 +2911,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2934,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2951,22 +2957,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>27</v>
@@ -2974,19 +2980,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3003,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3026,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3049,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3072,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3112,24 +3118,93 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1445,7 +1451,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>62</v>
@@ -1468,7 +1474,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>62</v>
@@ -1606,7 +1612,7 @@
         <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>62</v>
@@ -1675,7 +1681,7 @@
         <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>62</v>
@@ -1761,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2273,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2319,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2414,19 @@
         <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2431,16 +2437,16 @@
         <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,22 +2457,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>27</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,22 +2503,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>27</v>
@@ -2520,22 +2526,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>27</v>
@@ -2543,22 +2549,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2566,22 +2572,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>27</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,22 +2618,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>27</v>
@@ -2635,19 +2641,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2664,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>20</v>
@@ -2681,22 +2687,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>27</v>
@@ -2704,22 +2710,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>27</v>
@@ -2727,22 +2733,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>27</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2779,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,22 +2802,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2819,22 +2825,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>27</v>
@@ -2842,22 +2848,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>27</v>
@@ -2865,22 +2871,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>27</v>
@@ -2888,19 +2894,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>20</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,22 +2940,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>27</v>
@@ -2957,19 +2963,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>20</v>
@@ -2980,19 +2986,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3009,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,22 +3032,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>27</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3101,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,19 +3124,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3141,19 +3147,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3164,19 +3170,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3187,24 +3193,93 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Copia atto di matrimonio trascritto</t>
   </si>
   <si>
+    <t>Documenti utilizzati per la pubblicazione</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -279,6 +282,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -508,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -732,660 +741,660 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>84</v>
@@ -1394,1073 +1403,1073 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2469,818 +2478,910 @@
         <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G111" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G114" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>27</v>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -384,6 +384,84 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Sposo</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Nascita Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
   </si>
   <si>
     <t>Richiedente</t>
@@ -517,17 +595,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.84375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="59.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="48.4453125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2550,7 +2628,7 @@
         <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2561,16 +2639,16 @@
         <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2584,16 +2662,16 @@
         <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2607,7 +2685,7 @@
         <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2616,7 +2694,7 @@
         <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2630,7 +2708,7 @@
         <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2639,10 +2717,10 @@
         <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2653,7 +2731,7 @@
         <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2662,10 +2740,10 @@
         <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2676,16 +2754,16 @@
         <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2699,16 +2777,16 @@
         <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,7 +2800,7 @@
         <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2731,7 +2809,7 @@
         <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,7 +2823,7 @@
         <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2754,10 +2832,10 @@
         <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2768,7 +2846,7 @@
         <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2777,7 +2855,7 @@
         <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2791,7 +2869,7 @@
         <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2800,10 +2878,10 @@
         <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2811,22 +2889,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>28</v>
@@ -2834,19 +2912,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2935,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,22 +2958,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>28</v>
@@ -2903,22 +2981,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2926,19 +3004,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,22 +3027,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>28</v>
@@ -2972,19 +3050,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,22 +3073,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3018,19 +3096,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,22 +3119,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3064,22 +3142,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>28</v>
@@ -3087,22 +3165,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3110,19 +3188,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,22 +3211,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3156,19 +3234,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3179,22 +3257,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3202,22 +3280,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>28</v>
@@ -3225,19 +3303,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3326,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3271,19 +3349,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3294,22 +3372,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3317,19 +3395,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3340,22 +3418,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3363,7 +3441,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>52</v>
@@ -3372,15 +3450,567 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2067,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2481,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2596,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,16 +2622,16 @@
         <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,16 +2645,16 @@
         <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2688,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2849,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2872,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2895,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2964,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3010,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3056,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3079,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3125,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3174,19 @@
         <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3191,16 +3197,16 @@
         <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3211,22 +3217,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3234,19 +3240,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3257,22 +3263,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3280,22 +3286,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>28</v>
@@ -3303,22 +3309,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3326,22 +3332,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3349,19 +3355,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3372,22 +3378,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3395,19 +3401,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3424,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>21</v>
@@ -3441,22 +3447,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3464,22 +3470,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3487,22 +3493,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3510,22 +3516,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3533,22 +3539,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3556,22 +3562,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3579,19 +3585,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>21</v>
@@ -3602,19 +3608,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3625,19 +3631,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>21</v>
@@ -3648,19 +3654,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3671,19 +3677,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>21</v>
@@ -3694,22 +3700,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3717,22 +3723,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>28</v>
@@ -3740,22 +3746,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>28</v>
@@ -3763,22 +3769,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>28</v>
@@ -3786,19 +3792,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3809,22 +3815,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>28</v>
@@ -3832,19 +3838,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3855,19 +3861,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3878,19 +3884,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3901,19 +3907,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3924,19 +3930,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3947,19 +3953,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3970,19 +3976,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3993,24 +3999,70 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -378,12 +378,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -601,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1929,19 +1923,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1946,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1969,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +1992,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2015,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2038,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2061,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2084,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2107,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2130,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2153,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2176,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2199,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2222,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2245,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2268,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2291,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2314,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2337,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2360,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2383,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2406,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2429,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2452,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2498,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2521,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2544,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2567,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2590,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2622,16 +2616,16 @@
         <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2645,16 +2639,16 @@
         <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2705,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2728,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2751,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2774,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2797,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2820,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2843,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2866,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2889,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2912,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2935,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,19 +2958,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2987,19 +2981,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3004,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3027,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3050,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3073,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3096,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3119,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3142,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3168,19 @@
         <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3197,16 +3191,16 @@
         <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3217,22 +3211,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3240,19 +3234,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3263,22 +3257,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3286,22 +3280,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>28</v>
@@ -3309,22 +3303,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3332,22 +3326,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3355,19 +3349,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3378,22 +3372,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3401,19 +3395,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3418,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>21</v>
@@ -3447,22 +3441,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3470,22 +3464,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3493,22 +3487,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3516,22 +3510,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3539,22 +3533,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3562,22 +3556,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3585,19 +3579,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>21</v>
@@ -3608,19 +3602,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3631,19 +3625,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>21</v>
@@ -3654,19 +3648,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3677,19 +3671,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>21</v>
@@ -3700,22 +3694,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3723,22 +3717,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>28</v>
@@ -3746,22 +3740,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>28</v>
@@ -3769,22 +3763,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>28</v>
@@ -3792,19 +3786,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3815,22 +3809,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>28</v>
@@ -3838,19 +3832,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3861,19 +3855,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3884,19 +3878,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3907,19 +3901,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3930,19 +3924,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3953,19 +3947,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3976,19 +3970,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3999,70 +3993,24 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -601,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1337,7 +1349,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>63</v>
@@ -1360,7 +1372,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>63</v>
@@ -1406,7 +1418,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>63</v>
@@ -1429,7 +1441,7 @@
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
@@ -1495,7 +1507,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1504,7 +1516,7 @@
         <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1518,16 +1530,16 @@
         <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1541,10 +1553,10 @@
         <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>63</v>
@@ -1567,7 +1579,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>63</v>
@@ -1590,7 +1602,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>63</v>
@@ -1774,7 +1786,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>63</v>
@@ -1797,7 +1809,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>63</v>
@@ -1843,7 +1855,7 @@
         <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>63</v>
@@ -1866,7 +1878,7 @@
         <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>63</v>
@@ -1952,19 +1964,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1987,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2010,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2033,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2056,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2079,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2102,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2125,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2148,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2171,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2194,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2217,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2240,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2263,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2286,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2309,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2332,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2355,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2378,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2401,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2424,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2447,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2470,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2493,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2516,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2539,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2562,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2585,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2608,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2631,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2654,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2677,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2700,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2723,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2746,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2769,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2792,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2815,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2838,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2861,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2884,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2907,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2930,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2953,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,19 +2976,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2987,19 +2999,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3022,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3045,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3068,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3091,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3114,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3137,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3160,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3171,19 +3183,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3206,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3217,22 +3229,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3240,19 +3252,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3263,19 +3275,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3286,19 +3298,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3309,19 +3321,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>21</v>
@@ -3332,22 +3344,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3355,19 +3367,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3390,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3401,22 +3413,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3424,22 +3436,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3447,22 +3459,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3470,19 +3482,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>21</v>
@@ -3493,22 +3505,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3516,19 +3528,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3574,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>21</v>
@@ -3585,22 +3597,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>28</v>
@@ -3608,22 +3620,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3631,19 +3643,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>21</v>
@@ -3654,19 +3666,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3677,22 +3689,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>28</v>
@@ -3700,22 +3712,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3723,19 +3735,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>21</v>
@@ -3746,22 +3758,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>28</v>
@@ -3769,22 +3781,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>28</v>
@@ -3792,19 +3804,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3815,19 +3827,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>21</v>
@@ -3838,19 +3850,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3861,22 +3873,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>28</v>
@@ -3884,22 +3896,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>28</v>
@@ -3907,19 +3919,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3930,19 +3942,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3953,22 +3965,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>28</v>
@@ -3976,19 +3988,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3999,19 +4011,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4022,19 +4034,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4045,24 +4057,162 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>28</v>
       </c>
     </row>
